--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\ksk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\KSK_02v6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3760634E-AF50-4E37-B75C-36A464B32698}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF4EBF14-926E-45C9-A6D4-32F223B4BE4B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{97FB2F1B-0578-44A7-9CBF-BC8BA3739C6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="282">
   <si>
     <t>Capture CIS Standard Bill Of Materials - Compressed Report</t>
   </si>
@@ -826,6 +826,51 @@
   </si>
   <si>
     <t xml:space="preserve">ОS7439    </t>
+  </si>
+  <si>
+    <t>G3VM-401E</t>
+  </si>
+  <si>
+    <t>ACPL-M50L-560E</t>
+  </si>
+  <si>
+    <t>LM5106MMX/NOPB; LM5102MM/NOPB</t>
+  </si>
+  <si>
+    <t>SM6T36A; SMBJ26A</t>
+  </si>
+  <si>
+    <t>78253/55JVC-R</t>
+  </si>
+  <si>
+    <t>LM317EMP; LM317DCYR</t>
+  </si>
+  <si>
+    <t>LM293ADT; LM393ADT</t>
+  </si>
+  <si>
+    <t>VS-10BQ060-M3/5BT; MBRS190T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>1N4448WS; 1N4148WS RRG; 1N4448WS RRG</t>
+  </si>
+  <si>
+    <t>ES1C; ES1DHE3 A/H</t>
+  </si>
+  <si>
+    <t>P6SMB9.1A; SMBJ8.0D-M3/H</t>
+  </si>
+  <si>
+    <t>SMBJ17A</t>
+  </si>
+  <si>
+    <t>BAT54SLT1G</t>
+  </si>
+  <si>
+    <t>SMBJ250CA</t>
+  </si>
+  <si>
+    <t>MGSF1N03LT1G</t>
   </si>
 </sst>
 </file>
@@ -1182,19 +1227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8784073-63BD-4CDF-B3E6-8998151BE432}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1311,7 +1356,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1343,7 +1388,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1631,7 +1676,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2431,7 +2476,7 @@
         <v>24</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2463,7 +2508,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2495,7 +2540,7 @@
         <v>24</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2527,7 +2572,7 @@
         <v>24</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2559,7 +2604,7 @@
         <v>24</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2591,7 +2636,7 @@
         <v>24</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2623,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2655,7 +2700,7 @@
         <v>24</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2687,7 +2732,7 @@
         <v>24</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2719,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2751,7 +2796,7 @@
         <v>17</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2783,7 +2828,7 @@
         <v>24</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2815,7 +2860,7 @@
         <v>24</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2847,7 +2892,7 @@
         <v>17</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
